--- a/jade/default_settings/Activation.xlsx
+++ b/jade/default_settings/Activation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\default_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\laghida\Documents\GitHub\JADE\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F148C-C736-43FF-BA03-B4414A20E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79927180-BB1F-477B-84DF-1A2070A9B236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CD511ED-2E22-4867-A602-1EC939128E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="99c" sheetId="1" r:id="rId1"/>
-    <sheet name="98c" sheetId="2" r:id="rId2"/>
+    <sheet name="93c" sheetId="3" r:id="rId2"/>
+    <sheet name="98c" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="259">
   <si>
     <t>Parent</t>
   </si>
@@ -749,12 +750,6 @@
     <t>Co57</t>
   </si>
   <si>
-    <t>Nb92</t>
-  </si>
-  <si>
-    <t>Ag110</t>
-  </si>
-  <si>
     <r>
       <t>(n,</t>
     </r>
@@ -942,6 +937,291 @@
   </si>
   <si>
     <t>(n,2n)+ (n,2n)*+(n,2n)**</t>
+  </si>
+  <si>
+    <t>FENDL3.2b</t>
+  </si>
+  <si>
+    <t>decay2020</t>
+  </si>
+  <si>
+    <t>(n, p)</t>
+  </si>
+  <si>
+    <t>(n, 2n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n, g) + (n, g)* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n, p) + (n, p)* </t>
+  </si>
+  <si>
+    <t>(n, np) + (n, np)*</t>
+  </si>
+  <si>
+    <t>(n, d) + (n, d)*</t>
+  </si>
+  <si>
+    <t>(n, a) + (n, a)*</t>
+  </si>
+  <si>
+    <t>Al26</t>
+  </si>
+  <si>
+    <t>(n, g)</t>
+  </si>
+  <si>
+    <t>Al28</t>
+  </si>
+  <si>
+    <t>Si28</t>
+  </si>
+  <si>
+    <t>Si30</t>
+  </si>
+  <si>
+    <t>Si31</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>(n, a)</t>
+  </si>
+  <si>
+    <t>Cl37</t>
+  </si>
+  <si>
+    <t>Cl38</t>
+  </si>
+  <si>
+    <t>Ar36</t>
+  </si>
+  <si>
+    <t>Ar38</t>
+  </si>
+  <si>
+    <t>Ar40</t>
+  </si>
+  <si>
+    <t>Ar41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n, p) </t>
+  </si>
+  <si>
+    <t>(n, np)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n, d) </t>
+  </si>
+  <si>
+    <t>(n, d)</t>
+  </si>
+  <si>
+    <t>V52</t>
+  </si>
+  <si>
+    <t>Cr53</t>
+  </si>
+  <si>
+    <t>V53</t>
+  </si>
+  <si>
+    <t>Cr54</t>
+  </si>
+  <si>
+    <t>V54</t>
+  </si>
+  <si>
+    <t>(n, t)</t>
+  </si>
+  <si>
+    <t>(n, 2n) + (n, 2n)*</t>
+  </si>
+  <si>
+    <t>(n, g) + (n, g)*</t>
+  </si>
+  <si>
+    <t>(n, pa)</t>
+  </si>
+  <si>
+    <t>(n, p) + (n, p)*</t>
+  </si>
+  <si>
+    <t>Co62</t>
+  </si>
+  <si>
+    <t>(n, p)*</t>
+  </si>
+  <si>
+    <t>Co62m</t>
+  </si>
+  <si>
+    <t>(n, a)*</t>
+  </si>
+  <si>
+    <t>As75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEFF-3.3 </t>
+  </si>
+  <si>
+    <t>As74</t>
+  </si>
+  <si>
+    <t>As76</t>
+  </si>
+  <si>
+    <t>JEFF-3.3</t>
+  </si>
+  <si>
+    <t>Zr94</t>
+  </si>
+  <si>
+    <t>Zr95</t>
+  </si>
+  <si>
+    <t>(n, 2n)*</t>
+  </si>
+  <si>
+    <t>Nb92m</t>
+  </si>
+  <si>
+    <t>(n, n)*</t>
+  </si>
+  <si>
+    <t>Nb93m</t>
+  </si>
+  <si>
+    <t>Nb94</t>
+  </si>
+  <si>
+    <t>Mo97</t>
+  </si>
+  <si>
+    <t>Mo101</t>
+  </si>
+  <si>
+    <t>Ag107</t>
+  </si>
+  <si>
+    <t>(n, g)*</t>
+  </si>
+  <si>
+    <t>Ag108m</t>
+  </si>
+  <si>
+    <t>Ag110m</t>
+  </si>
+  <si>
+    <t>Cd114</t>
+  </si>
+  <si>
+    <t>Cd115</t>
+  </si>
+  <si>
+    <t>Cd116</t>
+  </si>
+  <si>
+    <t>Sn112</t>
+  </si>
+  <si>
+    <t>Sn113</t>
+  </si>
+  <si>
+    <t>Sn116</t>
+  </si>
+  <si>
+    <t>Sn117m</t>
+  </si>
+  <si>
+    <t>Sn117</t>
+  </si>
+  <si>
+    <t>Sn124</t>
+  </si>
+  <si>
+    <t>Sn123</t>
+  </si>
+  <si>
+    <t>Sb125</t>
+  </si>
+  <si>
+    <t>Sb121</t>
+  </si>
+  <si>
+    <t>Sb122</t>
+  </si>
+  <si>
+    <t>(n, g) + (n, g)* + (n, g)**</t>
+  </si>
+  <si>
+    <t>Ba132</t>
+  </si>
+  <si>
+    <t>Ba133</t>
+  </si>
+  <si>
+    <t>Ba134</t>
+  </si>
+  <si>
+    <t>(n, 2n) + (n, 2n)**</t>
+  </si>
+  <si>
+    <t>(n, p) + (n, p)* + (n, p)**</t>
+  </si>
+  <si>
+    <t>W183m</t>
+  </si>
+  <si>
+    <t>(n, np) + (n, np)* + (n, np)**</t>
+  </si>
+  <si>
+    <t>(n, d) + (n, d)* + (n, d)**</t>
+  </si>
+  <si>
+    <t>Re185</t>
+  </si>
+  <si>
+    <t>Re184</t>
+  </si>
+  <si>
+    <t>Tl204</t>
+  </si>
+  <si>
+    <t>(n, 2n) + (n, 2n)* + (n, 2n)**</t>
+  </si>
+  <si>
+    <t>Pb205</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>304</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1187,11 +1467,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1274,9 +1569,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,9 +1603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1332,7 +1643,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1438,7 +1749,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1580,7 +1891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1590,17 +1901,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB7F4D4-921E-4A50-8836-A2E974A72224}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="23.21875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="7" width="23.1796875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="4">
         <v>13</v>
@@ -1688,7 +1999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +2022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +2045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
       <c r="B7" s="4">
         <v>13</v>
@@ -1753,7 +2064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +2110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +2133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +2156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1868,7 +2179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
@@ -1891,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="4">
         <v>13</v>
@@ -1910,7 +2221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1933,7 +2244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +2267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1979,7 +2290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>40</v>
       </c>
@@ -2002,7 +2313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23"/>
       <c r="B19" s="4">
         <v>13</v>
@@ -2021,7 +2332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +2355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
       <c r="B21" s="6">
         <v>13</v>
@@ -2063,7 +2374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23"/>
       <c r="B22" s="4">
         <v>13</v>
@@ -2082,7 +2393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
@@ -2105,7 +2416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
       <c r="B24" s="6">
         <v>13</v>
@@ -2124,7 +2435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23"/>
       <c r="B25" s="4">
         <v>13</v>
@@ -2143,7 +2454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -2166,7 +2477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2189,7 +2500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -2212,7 +2523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -2235,7 +2546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>52</v>
       </c>
@@ -2258,7 +2569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23"/>
       <c r="B31" s="4">
         <v>12</v>
@@ -2277,7 +2588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -2300,7 +2611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
       <c r="B33" s="6">
         <v>13</v>
@@ -2319,7 +2630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23"/>
       <c r="B34" s="4">
         <v>13</v>
@@ -2338,7 +2649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>57</v>
       </c>
@@ -2361,7 +2672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="6">
         <v>13</v>
@@ -2380,7 +2691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
       <c r="B37" s="4">
         <v>13</v>
@@ -2399,7 +2710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>59</v>
       </c>
@@ -2422,7 +2733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="23"/>
       <c r="B39" s="4">
         <v>13</v>
@@ -2441,7 +2752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>60</v>
       </c>
@@ -2464,7 +2775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
       <c r="B41" s="4">
         <v>13</v>
@@ -2483,7 +2794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="22" t="s">
         <v>62</v>
       </c>
@@ -2506,7 +2817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="6">
         <v>13</v>
@@ -2525,7 +2836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="6">
         <v>13</v>
@@ -2544,7 +2855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23"/>
       <c r="B45" s="4">
         <v>13</v>
@@ -2563,7 +2874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>64</v>
       </c>
@@ -2586,7 +2897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
       <c r="B47" s="6">
         <v>13</v>
@@ -2605,7 +2916,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="24"/>
       <c r="B48" s="6">
         <v>13</v>
@@ -2624,7 +2935,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="24"/>
       <c r="B49" s="6">
         <v>13</v>
@@ -2643,7 +2954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="23"/>
       <c r="B50" s="4">
         <v>13</v>
@@ -2662,7 +2973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
@@ -2685,7 +2996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="22" t="s">
         <v>70</v>
       </c>
@@ -2708,7 +3019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23"/>
       <c r="B53" s="4">
         <v>13</v>
@@ -2727,7 +3038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>72</v>
       </c>
@@ -2750,7 +3061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
         <v>73</v>
       </c>
@@ -2773,7 +3084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="23"/>
       <c r="B56" s="4">
         <v>13</v>
@@ -2792,7 +3103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
@@ -2815,7 +3126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
@@ -2838,7 +3149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>78</v>
       </c>
@@ -2861,7 +3172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>79</v>
       </c>
@@ -2884,7 +3195,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>81</v>
       </c>
@@ -2907,7 +3218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="23"/>
       <c r="B62" s="4">
         <v>12</v>
@@ -2926,7 +3237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>85</v>
       </c>
@@ -2949,7 +3260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
         <v>86</v>
       </c>
@@ -2972,7 +3283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23"/>
       <c r="B65" s="4">
         <v>12</v>
@@ -2991,7 +3302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
         <v>88</v>
       </c>
@@ -3014,7 +3325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="23"/>
       <c r="B67" s="4">
         <v>13</v>
@@ -3033,7 +3344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>89</v>
       </c>
@@ -3056,7 +3367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16" t="s">
         <v>91</v>
       </c>
@@ -3079,7 +3390,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>93</v>
       </c>
@@ -3099,10 +3410,10 @@
         <v>94</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="22" t="s">
         <v>95</v>
       </c>
@@ -3122,10 +3433,10 @@
         <v>96</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23"/>
       <c r="B72" s="4">
         <v>13</v>
@@ -3144,7 +3455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>97</v>
       </c>
@@ -3167,7 +3478,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="16" t="s">
         <v>99</v>
       </c>
@@ -3190,7 +3501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>101</v>
       </c>
@@ -3213,7 +3524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16" t="s">
         <v>102</v>
       </c>
@@ -3233,10 +3544,10 @@
         <v>104</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16" t="s">
         <v>105</v>
       </c>
@@ -3253,13 +3564,13 @@
         <v>102</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>107</v>
       </c>
@@ -3282,7 +3593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>109</v>
       </c>
@@ -3305,7 +3616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>111</v>
       </c>
@@ -3328,7 +3639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>112</v>
       </c>
@@ -3351,7 +3662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="22" t="s">
         <v>114</v>
       </c>
@@ -3374,7 +3685,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="23"/>
       <c r="B83" s="4">
         <v>12</v>
@@ -3393,7 +3704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>116</v>
       </c>
@@ -3416,7 +3727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="21" t="s">
         <v>118</v>
       </c>
@@ -3433,13 +3744,13 @@
         <v>102</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G85" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="16" t="s">
         <v>120</v>
       </c>
@@ -3458,11 +3769,11 @@
       <c r="F86" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="s">
         <v>122</v>
       </c>
@@ -3485,7 +3796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23"/>
       <c r="B88" s="4">
         <v>13</v>
@@ -3504,7 +3815,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="22" t="s">
         <v>124</v>
       </c>
@@ -3521,13 +3832,13 @@
         <v>28</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="23"/>
       <c r="B90" s="4">
         <v>13</v>
@@ -3540,13 +3851,13 @@
         <v>104</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>125</v>
       </c>
@@ -3569,7 +3880,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>127</v>
       </c>
@@ -3592,7 +3903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="22" t="s">
         <v>129</v>
       </c>
@@ -3615,7 +3926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="23"/>
       <c r="B94" s="4">
         <v>13</v>
@@ -3634,7 +3945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>132</v>
       </c>
@@ -3657,7 +3968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>134</v>
       </c>
@@ -3680,7 +3991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="16" t="s">
         <v>135</v>
       </c>
@@ -3700,10 +4011,10 @@
         <v>38</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="16" t="s">
         <v>136</v>
       </c>
@@ -3720,13 +4031,13 @@
         <v>16</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
@@ -3749,7 +4060,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="16" t="s">
         <v>140</v>
       </c>
@@ -3772,7 +4083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="16" t="s">
         <v>142</v>
       </c>
@@ -3797,32 +4108,12 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A30:A31"/>
@@ -3837,12 +4128,32 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3850,6 +4161,3509 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F22FF2-3480-4926-A7E4-9637DCFA6C7B}">
+  <dimension ref="A1:G155"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="26.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="31">
+        <v>13</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="32">
+        <v>103</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="31">
+        <v>13</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="32">
+        <v>16</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="31">
+        <v>13</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="32">
+        <v>16</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="31">
+        <v>13</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31">
+        <v>13</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="31">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="33"/>
+      <c r="B8" s="31">
+        <v>13</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31">
+        <v>13</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="31">
+        <v>13</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="32">
+        <v>16</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="31">
+        <v>13</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="31">
+        <v>13</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="31">
+        <v>13</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="32">
+        <v>102</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="31">
+        <v>13</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="32">
+        <v>102</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="31">
+        <v>13</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="32">
+        <v>102</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="31">
+        <v>13</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="32">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="31">
+        <v>13</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="32">
+        <v>102</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="31">
+        <v>13</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="32">
+        <v>102</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="31">
+        <v>13</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="32">
+        <v>107</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="31">
+        <v>13</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="32">
+        <v>103</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="31">
+        <v>13</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="32">
+        <v>28</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="31">
+        <v>13</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="32">
+        <v>104</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="31">
+        <v>13</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="32">
+        <v>103</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="31">
+        <v>13</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="32">
+        <v>28</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="31">
+        <v>13</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="32">
+        <v>104</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="31">
+        <v>13</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="32">
+        <v>107</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="33"/>
+      <c r="B28" s="31">
+        <v>13</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="32">
+        <v>102</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="31">
+        <v>13</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="32">
+        <v>16</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="31">
+        <v>13</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="32">
+        <v>102</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="31">
+        <v>13</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="32">
+        <v>103</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="33"/>
+      <c r="B32" s="31">
+        <v>13</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="32">
+        <v>16</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="31">
+        <v>13</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="32">
+        <v>28</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
+      <c r="B34" s="31">
+        <v>13</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="32">
+        <v>104</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="31">
+        <v>13</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="32">
+        <v>103</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="31">
+        <v>13</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="32">
+        <v>28</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="31">
+        <v>13</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="32">
+        <v>104</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="33"/>
+      <c r="B38" s="31">
+        <v>13</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="32">
+        <v>103</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="31">
+        <v>13</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="32">
+        <v>28</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="33"/>
+      <c r="B40" s="31">
+        <v>13</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="32">
+        <v>104</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="31">
+        <v>13</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="32">
+        <v>107</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="33"/>
+      <c r="B42" s="31">
+        <v>13</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="32">
+        <v>102</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="31">
+        <v>13</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="32">
+        <v>102</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="31">
+        <v>13</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="33"/>
+      <c r="B45" s="31">
+        <v>13</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="32">
+        <v>16</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="31">
+        <v>13</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="31">
+        <v>13</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="31">
+        <v>13</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="31">
+        <v>13</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="32">
+        <v>16</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="33"/>
+      <c r="B50" s="31">
+        <v>12</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="32">
+        <v>102</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="31">
+        <v>13</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="32">
+        <v>107</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="33"/>
+      <c r="B52" s="31">
+        <v>13</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="32">
+        <v>103</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="33"/>
+      <c r="B53" s="31">
+        <v>13</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="32">
+        <v>102</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="31">
+        <v>13</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="32">
+        <v>105</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="33"/>
+      <c r="B55" s="31">
+        <v>13</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="32">
+        <v>103</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="33"/>
+      <c r="B56" s="31">
+        <v>13</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="32">
+        <v>16</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="31">
+        <v>13</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="32">
+        <v>28</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="33"/>
+      <c r="B58" s="31">
+        <v>13</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="32">
+        <v>104</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="31">
+        <v>13</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="32">
+        <v>105</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="33"/>
+      <c r="B60" s="31">
+        <v>12</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="32">
+        <v>102</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="31">
+        <v>13</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="32">
+        <v>107</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="33"/>
+      <c r="B62" s="31">
+        <v>13</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="32">
+        <v>103</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="33"/>
+      <c r="B63" s="31">
+        <v>13</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="32">
+        <v>16</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="33"/>
+      <c r="B64" s="31">
+        <v>13</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="32">
+        <v>102</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="31">
+        <v>13</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="32">
+        <v>112</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="33"/>
+      <c r="B66" s="31">
+        <v>13</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="32">
+        <v>28</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="33"/>
+      <c r="B67" s="31">
+        <v>13</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="32">
+        <v>104</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="33"/>
+      <c r="B68" s="31">
+        <v>13</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="32">
+        <v>103</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="33"/>
+      <c r="B69" s="31">
+        <v>13</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="32">
+        <v>16</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="31">
+        <v>13</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="32">
+        <v>103</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="31">
+        <v>13</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="32">
+        <v>28</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="33"/>
+      <c r="B72" s="31">
+        <v>13</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="32">
+        <v>104</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="31">
+        <v>13</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="32">
+        <v>107</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="33"/>
+      <c r="B74" s="31">
+        <v>13</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="33"/>
+      <c r="B75" s="31">
+        <v>13</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="31">
+        <v>13</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="32">
+        <v>107</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="33"/>
+      <c r="B77" s="31">
+        <v>13</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="33"/>
+      <c r="B78" s="31">
+        <v>13</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="32">
+        <v>102</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="31">
+        <v>13</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="33"/>
+      <c r="B80" s="31">
+        <v>13</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="33"/>
+      <c r="B81" s="31">
+        <v>13</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="33"/>
+      <c r="B82" s="31">
+        <v>13</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="32">
+        <v>16</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="33"/>
+      <c r="B83" s="31">
+        <v>13</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="32">
+        <v>102</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="31">
+        <v>13</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="32">
+        <v>103</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="33"/>
+      <c r="B85" s="31">
+        <v>12</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" s="32">
+        <v>102</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="31">
+        <v>13</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="32">
+        <v>16</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="31">
+        <v>12</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="32">
+        <v>102</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="31">
+        <v>13</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="32">
+        <v>16</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="33"/>
+      <c r="B89" s="31">
+        <v>12</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="32">
+        <v>102</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="31">
+        <v>13</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="32">
+        <v>16</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="33"/>
+      <c r="B91" s="31">
+        <v>12</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="31">
+        <v>13</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" s="32">
+        <v>16</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="31">
+        <v>13</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" s="32">
+        <v>103</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="33"/>
+      <c r="B94" s="31">
+        <v>12</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="32">
+        <v>102</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="31">
+        <v>13</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" s="32">
+        <v>103</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="33"/>
+      <c r="B96" s="31">
+        <v>13</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" s="32">
+        <v>16</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="31">
+        <v>13</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="32">
+        <v>16</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="31">
+        <v>13</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="32">
+        <v>16</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="31">
+        <v>12</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="31">
+        <v>13</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="32">
+        <v>316</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="33"/>
+      <c r="B101" s="31">
+        <v>13</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="33"/>
+      <c r="B102" s="31">
+        <v>12</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="32">
+        <v>102</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="31">
+        <v>13</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="32">
+        <v>403</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="33"/>
+      <c r="B104" s="31">
+        <v>13</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="32">
+        <v>107</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="31">
+        <v>13</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" s="32">
+        <v>103</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="31">
+        <v>13</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" s="32">
+        <v>28</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="33"/>
+      <c r="B107" s="31">
+        <v>13</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="32">
+        <v>104</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="31">
+        <v>13</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" s="32">
+        <v>105</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="33"/>
+      <c r="B109" s="31">
+        <v>12</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="32">
+        <v>102</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" s="31">
+        <v>13</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="32">
+        <v>16</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="33"/>
+      <c r="B111" s="31">
+        <v>12</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="32">
+        <v>102</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="31">
+        <v>12</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="32">
+        <v>102</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="31">
+        <v>13</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="32">
+        <v>316</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="33"/>
+      <c r="B114" s="31">
+        <v>12</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="32">
+        <v>102</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="31">
+        <v>12</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" s="32">
+        <v>102</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="31">
+        <v>13</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" s="32">
+        <v>16</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="31">
+        <v>12</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="32">
+        <v>102</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="31">
+        <v>12</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" s="32">
+        <v>102</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="31">
+        <v>13</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="31">
+        <v>13</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="33"/>
+      <c r="B121" s="31">
+        <v>12</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="32">
+        <v>102</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="31">
+        <v>12</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="31">
+        <v>12</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="32">
+        <v>102</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="31">
+        <v>12</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="32">
+        <v>102</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" s="31">
+        <v>12</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="32">
+        <v>102</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" s="31">
+        <v>13</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" s="32">
+        <v>16</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="31">
+        <v>12</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="32">
+        <v>102</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" s="31">
+        <v>13</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E128" s="32">
+        <v>103</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="31">
+        <v>12</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E129" s="32">
+        <v>102</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="31">
+        <v>13</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" s="32">
+        <v>16</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="33"/>
+      <c r="B131" s="31">
+        <v>12</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E131" s="32">
+        <v>102</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="31">
+        <v>12</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E132" s="32">
+        <v>102</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="31">
+        <v>12</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" s="32">
+        <v>102</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="31">
+        <v>13</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E134" s="32">
+        <v>102</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="31">
+        <v>13</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" s="32">
+        <v>103</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="33"/>
+      <c r="B136" s="31">
+        <v>13</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" s="32">
+        <v>16</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="33"/>
+      <c r="B137" s="31">
+        <v>12</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E137" s="32">
+        <v>102</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B138" s="31">
+        <v>13</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="32">
+        <v>28</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G138" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="33"/>
+      <c r="B139" s="31">
+        <v>13</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="32">
+        <v>104</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="31">
+        <v>13</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E140" s="32">
+        <v>107</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="33"/>
+      <c r="B141" s="31">
+        <v>13</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="32">
+        <v>316</v>
+      </c>
+      <c r="F141" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="31">
+        <v>12</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" s="32">
+        <v>102</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B143" s="31">
+        <v>13</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" s="31">
+        <v>13</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="32">
+        <v>316</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="33"/>
+      <c r="B145" s="31">
+        <v>13</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145" s="32">
+        <v>402</v>
+      </c>
+      <c r="F145" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="31">
+        <v>13</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="32">
+        <v>304</v>
+      </c>
+      <c r="F146" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="31">
+        <v>13</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" s="32">
+        <v>316</v>
+      </c>
+      <c r="F147" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="31">
+        <v>13</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="32">
+        <v>102</v>
+      </c>
+      <c r="F148" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G148" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="31">
+        <v>13</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F149" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="33"/>
+      <c r="B150" s="31">
+        <v>13</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" s="32">
+        <v>16</v>
+      </c>
+      <c r="F150" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="33"/>
+      <c r="B151" s="31">
+        <v>13</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F151" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="31">
+        <v>13</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="32">
+        <v>107</v>
+      </c>
+      <c r="F152" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="33"/>
+      <c r="B153" s="31">
+        <v>13</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G153" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="31">
+        <v>12</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="32">
+        <v>102</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G154" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B155" s="31">
+        <v>12</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" s="32">
+        <v>102</v>
+      </c>
+      <c r="F155" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CEFDE8-EE72-4832-8856-9CF4C69CE074}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -3857,13 +7671,13 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="5" width="16.36328125" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +7694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>146</v>
       </c>
@@ -3897,7 +7711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -3914,7 +7728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -3925,13 +7739,13 @@
         <v>102</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3942,13 +7756,13 @@
         <v>107</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -3959,13 +7773,13 @@
         <v>102</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
@@ -3982,7 +7796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
@@ -3999,7 +7813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27"/>
       <c r="B9" s="12">
         <v>13</v>
@@ -4008,13 +7822,13 @@
         <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>55</v>
       </c>
@@ -4031,7 +7845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27"/>
       <c r="B11" s="12">
         <v>13</v>
@@ -4040,13 +7854,13 @@
         <v>107</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>57</v>
       </c>
@@ -4063,7 +7877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27"/>
       <c r="B13" s="12">
         <v>13</v>
@@ -4078,7 +7892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>59</v>
       </c>
@@ -4095,7 +7909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="12">
         <v>13</v>
@@ -4110,7 +7924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>60</v>
       </c>
@@ -4121,13 +7935,13 @@
         <v>102</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27"/>
       <c r="B17" s="12">
         <v>13</v>
@@ -4142,7 +7956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>62</v>
       </c>
@@ -4159,7 +7973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="13">
         <v>13</v>
@@ -4168,13 +7982,13 @@
         <v>102</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="13">
         <v>13</v>
@@ -4189,7 +8003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="27"/>
       <c r="B21" s="12">
         <v>13</v>
@@ -4198,13 +8012,13 @@
         <v>107</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>64</v>
       </c>
@@ -4221,7 +8035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>67</v>
       </c>
@@ -4238,7 +8052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>70</v>
       </c>
@@ -4255,7 +8069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="27"/>
       <c r="B25" s="12">
         <v>13</v>
@@ -4270,7 +8084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>72</v>
       </c>
@@ -4281,13 +8095,13 @@
         <v>107</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>73</v>
       </c>
@@ -4304,7 +8118,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="13">
         <v>13</v>
@@ -4313,13 +8127,13 @@
         <v>102</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="12">
         <v>13</v>
@@ -4328,13 +8142,13 @@
         <v>107</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>75</v>
       </c>
@@ -4351,7 +8165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="13">
         <v>13</v>
@@ -4360,13 +8174,13 @@
         <v>102</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="27"/>
       <c r="B32" s="12">
         <v>13</v>
@@ -4381,7 +8195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>118</v>
       </c>
@@ -4392,13 +8206,13 @@
         <v>102</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>122</v>
       </c>
@@ -4415,7 +8229,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>127</v>
       </c>
@@ -4426,7 +8240,7 @@
         <v>102</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>128</v>
